--- a/Client/Assets/Excels/RoleInfo.xlsx
+++ b/Client/Assets/Excels/RoleInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\unity_try\Forgetful Cupid\ForgetfulCupid\Client\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\unity_try\Forgetful Cupid\test\ForgetfulCupid\Client\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B3DC11-AEAB-4C88-85A5-225002E18BF0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD32BBF-2EB8-4FA3-8D75-F481E1E34BCA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9765" windowHeight="7260" xr2:uid="{D77DE72B-4FC0-481A-96EF-11BA6B0C2173}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{F525D064-6667-4D77-BE86-E477A3C2AA29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,36 +27,36 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
+    <t>程敏敏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张志军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物全身图片地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物头像图片地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物性格等描述图片地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>人物编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物头像图片地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物全身图片地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张志军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程敏敏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物性格等描述图片地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Arts/Role/…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Resources/Arts/Roles/…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -76,16 +76,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -122,7 +122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -136,7 +136,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -453,48 +453,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7F81F1-A25E-41F7-8097-B2F0DC8A9530}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3417BF31-4CED-4F0B-BFA8-663D9553784C}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="38" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="29.25" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="57.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -505,15 +495,13 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -524,48 +512,9 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Assets/Excels/RoleInfo.xlsx
+++ b/Client/Assets/Excels/RoleInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\unity_try\Forgetful Cupid\test\ForgetfulCupid\Client\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD32BBF-2EB8-4FA3-8D75-F481E1E34BCA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D56DD4F-EFDF-49E2-9D91-45F2C78902A6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{F525D064-6667-4D77-BE86-E477A3C2AA29}"/>
   </bookViews>
@@ -55,7 +55,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Resources/Arts/Roles/…</t>
+    <t>Arts/Roles/…</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +457,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -479,7 +479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="29.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -496,7 +496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>

--- a/Client/Assets/Excels/RoleInfo.xlsx
+++ b/Client/Assets/Excels/RoleInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\unity_try\Forgetful Cupid\test\ForgetfulCupid\Client\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D56DD4F-EFDF-49E2-9D91-45F2C78902A6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0380BEA2-2061-41D8-A0AA-4AD49AFC7F55}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{F525D064-6667-4D77-BE86-E477A3C2AA29}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>程敏敏</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55,7 +55,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Arts/Roles/…</t>
+    <t>Arts/ImagesNew/LeftChar01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/RightChar101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/LeftChar101</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29.25" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="43.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -490,13 +498,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -504,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Excels/RoleInfo.xlsx
+++ b/Client/Assets/Excels/RoleInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\unity_try\Forgetful Cupid\test\ForgetfulCupid\Client\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0380BEA2-2061-41D8-A0AA-4AD49AFC7F55}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4041A3D2-180F-4344-B537-2F84C706A40B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{F525D064-6667-4D77-BE86-E477A3C2AA29}"/>
   </bookViews>
@@ -25,46 +25,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>程敏敏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张志军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人物全身图片地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人物头像图片地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人物性格等描述图片地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人物名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人物编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Arts/ImagesNew/LeftChar01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Arts/ImagesNew/RightChar101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Arts/ImagesNew/LeftChar101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张智君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁奕宸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶清凡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -74,19 +90,10 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -100,15 +107,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -116,21 +129,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -144,12 +145,11 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="标题 2" xfId="1" builtinId="17"/>
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -462,67 +462,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3417BF31-4CED-4F0B-BFA8-663D9553784C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="66.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="43.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Client/Assets/Excels/RoleInfo.xlsx
+++ b/Client/Assets/Excels/RoleInfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4041A3D2-180F-4344-B537-2F84C706A40B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C621EE-BE6C-4F97-9085-5C3B8EF538FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{F525D064-6667-4D77-BE86-E477A3C2AA29}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>程敏敏</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,34 @@
   </si>
   <si>
     <t>苏佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/LeftChar102</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/LeftChar103</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/LeftChar104</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/LeftChar105</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/RightChar102</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/RightChar103</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/RightChar104</t>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/RightChar105</t>
+  </si>
+  <si>
+    <t>未修改！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,10 +149,36 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -135,17 +189,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,100 +525,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3417BF31-4CED-4F0B-BFA8-663D9553784C}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="25.25" customWidth="1"/>
     <col min="4" max="4" width="26.75" customWidth="1"/>
     <col min="5" max="5" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="F1" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>101</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>102</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>104</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>105</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>106</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Excels/RoleInfo.xlsx
+++ b/Client/Assets/Excels/RoleInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\unity_try\Forgetful Cupid\test\ForgetfulCupid\Client\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C621EE-BE6C-4F97-9085-5C3B8EF538FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A6095C-781D-449F-804C-18D5EA8057B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="7260" xr2:uid="{F525D064-6667-4D77-BE86-E477A3C2AA29}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>程敏敏</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>人物编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arts/ImagesNew/LeftChar01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -528,7 +524,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -557,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -565,16 +561,16 @@
         <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -585,13 +581,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -599,16 +595,16 @@
         <v>103</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -616,16 +612,16 @@
         <v>104</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -633,16 +629,16 @@
         <v>105</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -650,20 +646,21 @@
         <v>106</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>